--- a/08. Noi Quy - Quy Dinh/200101_VanDe_GiaiPhap.xlsx
+++ b/08. Noi Quy - Quy Dinh/200101_VanDe_GiaiPhap.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vấn đề - Giải pháp" sheetId="1" r:id="rId1"/>
+    <sheet name="Mục tiêu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>VẤN ĐỀ VÀ GIẢI PHÁP XÂY DỰNG  NỘI QUY - QUY ĐỊNH</t>
   </si>
@@ -84,12 +85,138 @@
 - Tự kiểm điểm bản thân nếu cảm thấy vi phạm về dùng facebook, đọc thông tin không liên quan trong giờ làm việc và nộp 5k
 - Để điện thoại kêu trong giờ làm việc, sử dụng điện thoại làm việc cá nhân trong giờ làm việc 5k/ 1 lần</t>
   </si>
+  <si>
+    <t>MỤC TIÊU CÔNG VIỆC</t>
+  </si>
+  <si>
+    <t>Loại</t>
+  </si>
+  <si>
+    <t>Mục tiêu dài hạn</t>
+  </si>
+  <si>
+    <t>Mục tiêu ngắn hạn</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Học cách giải quyết vấn đề mắc phải khi kinh doanh online, nguồn hàng, đầu ra, vốn, cách tiếp thị, các sự cố khi kinh doanh</t>
+  </si>
+  <si>
+    <t>Quy trình xây dưng nội dung, set up khi có một mặc hàng mới.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có thể cung cấp giải pháp bán hàng online cho cộng tác viên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đủ tool, thủ thuật, kiến thức để chạy quảng cáo, tiếp cận khách hàng trên facebook và instagram (khoảng 1200 lượt tương tác, comment mỗi ngày) </t>
+  </si>
+  <si>
+    <t>Thời hạn</t>
+  </si>
+  <si>
+    <t>7 tháng (đến 4/7/2020)</t>
+  </si>
+  <si>
+    <t>Báo cáo 1 tháng 1 lần</t>
+  </si>
+  <si>
+    <t>Cập nhập sau 1 mục tiêu ngắn hạn</t>
+  </si>
+  <si>
+    <t>3 tháng (từ 4/7/2020 - 4/10/2020)</t>
+  </si>
+  <si>
+    <t>Instagram:</t>
+  </si>
+  <si>
+    <t>- Xây dựng quy trình, cách chọn sản phẩm có thể bán chạy</t>
+  </si>
+  <si>
+    <t>- Thu thập dữ liệu =&gt; Lấy được tập khách hàng để follow từ hasgtag, trang cá nhân, vị trí địa lý, lọc đối tượng</t>
+  </si>
+  <si>
+    <t>- Tool follow, unfollow =&gt; Đưa ra thuật toán tối ưu follow (bao nhiêu người/ngày, bao giờ là unfollow)</t>
+  </si>
+  <si>
+    <t>- Tool tăng tương tác =&gt; Like, comment</t>
+  </si>
+  <si>
+    <t>- Tự động nhắn tin tập khách hàng</t>
+  </si>
+  <si>
+    <t>- Nghiên cứu Proxy</t>
+  </si>
+  <si>
+    <t>- Tìm thêm thủ thuật chạy insta, thử nghiệm mô phỏng và đưa ra kế hoạch chuyển thành tool</t>
+  </si>
+  <si>
+    <t>Facebook:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tool nuôi facebook =&gt; có thể nuôi hàng ngàn facebook - quản lý được tất cả tài khoản </t>
+  </si>
+  <si>
+    <t>+ Tool lướt newfeed + like + comment ngẫu nhiên trên newfeed</t>
+  </si>
+  <si>
+    <t>+ Tool up bài viết</t>
+  </si>
+  <si>
+    <t>+ Tool Share bài đăng</t>
+  </si>
+  <si>
+    <t>+ Tool kết bạn (kết bạn theo gợi ý, theo tập khách hàng, chấp nhận kết bạn)</t>
+  </si>
+  <si>
+    <t>+ Tool kiểm tra tương tác, hủy kết bạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Tool đăng bài trên trang cá nhân </t>
+  </si>
+  <si>
+    <t>+ Tool đánh giá page, like page</t>
+  </si>
+  <si>
+    <t>Tool - Lưu database + Giao diện cơ bản cho người dùng + Quản lý theo thuật toán, thời gian</t>
+  </si>
+  <si>
+    <t>+ Tìm thêm thủ thuật chạy facebook, thử nghiệm mô phỏng và đưa ra kế hoạch chuyển thành tool</t>
+  </si>
+  <si>
+    <t>Doanh thu:</t>
+  </si>
+  <si>
+    <t>- Đến tháng 4/2020 đạt được lợi nhuận 500k/1 ngày - Ứng với 300 tương tác, comment/ 1 ngày</t>
+  </si>
+  <si>
+    <t>Nguồn hàng:</t>
+  </si>
+  <si>
+    <t>- Chọn được mặt hàng tiềm năng =&gt; Đưa ra quy trình, giải pháp để chọn</t>
+  </si>
+  <si>
+    <t>+ Tool lập nick</t>
+  </si>
+  <si>
+    <t>- Thương lượng để hợp tác với các đơn vị cung cấp hàng sỉ, đảm bảo được nguồn hàng (chạy từng mặt hàng, đi cho đến khi có khoảng 1 nhà cung cấp đồng ý)</t>
+  </si>
+  <si>
+    <t>- Lên kế hoạch, tài liệu chuẩn bị</t>
+  </si>
+  <si>
+    <t>+ Tool quét dữ liệu</t>
+  </si>
+  <si>
+    <t>+ Sử dụng xác thực 2 lớp qua API</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +232,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -131,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -156,6 +291,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,11 +637,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -513,12 +650,12 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -534,6 +671,229 @@
         <v>10</v>
       </c>
       <c r="C10" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="142" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
